--- a/P4_01_rapport_analyse.xlsx
+++ b/P4_01_rapport_analyse.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -55,29 +55,29 @@
     <t xml:space="preserve">https://www.octopulse.io/blog/balise-title-comment-les-optimiser/?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNXmH_UMURhqs-3ZXXavr471OR6M4OZcKV3LeGhAB8OnbLnJ9T88MU0aAgGYEALw_wcBhttps://www.wearethewords.com/conseils-seo-meta-description/</t>
   </si>
   <si>
-    <t xml:space="preserve">La taille des images est trop grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les images sont sous un format non optimisées pour le web et, de part leur poids important, ralentissent inutilement le chargement de la page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne pas utiliser les images sous format bmp, préférer le format jpeg pour les photos et images, png ou svg pour les logos ou webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.seonity.com/format-image-webp-seo/</t>
+    <t xml:space="preserve">Problème aux niveaux de la taille des images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images non optimisées a cause du format.                                                              Poids important des images qui cause un ralentissement du chargement de la page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisez de préférence les formats JPG, GIF et PNG.                                    Idéalement, la taille native de l’image doit être la même que la taille d’affichage, cela permet de réduire le poids de nos images.                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.anthedesign.fr/referencement/seo-comment-optimiser-le-referencement-des-images/</t>
   </si>
   <si>
     <t xml:space="preserve">L’hébergement des bibliothèques tierces ralentit le site</t>
   </si>
   <si>
-    <t xml:space="preserve">Héberger la bibliothèque Jquery alourdit inutilement le chargement de la page. Héberger les bibliothèques JavaScript est également déconseillé car les versions ne sont pas mis à jour et peuvent provoquer des problèmes de sécurité.</t>
+    <t xml:space="preserve">la bibliothèque Jquery alourdit le chargement de la page.                         Les bibliothèques JavaScript sont déconseillées car les versions ne sont pas mis à jour et peuvent provoquer des problèmes de sécurité.</t>
   </si>
   <si>
     <t xml:space="preserve">Utiliser les CDN proposés par les éditeurs
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ovh.com/fr/cdn/amelioration-referencement.xml</t>
+    <t xml:space="preserve">https://www.anthedesign.fr/hebergement-web/cdn-content-delivery-network/</t>
   </si>
   <si>
     <t xml:space="preserve">Les fichiers CSS et JavaScript ne sont pas optimisés</t>
@@ -90,43 +90,58 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site#/id/r-6055854</t>
+    <t xml:space="preserve">Cours openclasroom</t>
   </si>
   <si>
     <t xml:space="preserve">Les annuaires en bas de page sont inutiles</t>
   </si>
   <si>
-    <t xml:space="preserve">Les liens dans des annuaires sont de mauvaises qualité et peuvent être contre-productive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne pas mettre d’annuaires qui n’ont aucun lien avec le site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578346-augmentez-lautorite-de-votre-site#/id/r-5603088</t>
+    <t xml:space="preserve">Certains liens sont incohérents avec le domaine du métier , de plus à l’heure actuel google sait reconnaître une multitudes de liens dans un footer ce qui n’augmentera pas notre trafic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas mettre d’annuaires qui n’ont aucun lien avec le site , garder le nécessaire</t>
   </si>
   <si>
     <t xml:space="preserve">Les mots-clés en 1px autour du logo et en bas de page, de la même couleur que le fond, sont déconseillés pour le référencement</t>
   </si>
   <si>
-    <t xml:space="preserve">Google considère que les mots-clés saisi en taille très petite ou les mots-clés cachés (même couleur de texte et de fond)  sont une tentative malhonnête pour essayer d’influencer le classement dans les moteurs de recherche</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">les mots-clés saisi en taille très petite ou  cachés par des couleurs ou un fond </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">qui a pour but d’influencer le classement dans Google est une technique qui peux être punis par Google.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> N’utilisez pas de texte trop petit ou de texte caché.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.matthieu-tranvan.fr/referencement-naturel/checklist-seo-25-bonnes-pratiques-on-site-pour-renforcer-votre-referencement-naturel.html étape 14</t>
+    <t xml:space="preserve">https://www.semjuice.com/definition/black-hat-seo?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNUpNsgnhmSge7NT9pYj_1_KvCgJbyYzyFweHBTXoXtkml8eQS6xIl4aAt7GEALw_wcB</t>
   </si>
   <si>
     <t xml:space="preserve">Le nom de la page de contact est incorrect</t>
   </si>
   <si>
-    <t xml:space="preserve">L’utilisateur ne comprend pas qu’il s’agit d’une page de contact si le nom de la page est un mot générique</t>
+    <t xml:space="preserve">Le titre de la deuxième page « page 2 » n’aide pas le visiteur à ce repérer </t>
   </si>
   <si>
     <t xml:space="preserve">Ne pas nommer le nom des pages, ainsi que les liens, avec des mots génériques tel que « page X »</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.webrankinfo.com/dossiers/techniques/url-et-referencement</t>
+    <t xml:space="preserve">https://www.octopulse.io/blog/balise-title-comment-les-optimiser/?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNWN6Bu620NNkaoLhjpWnVimArjvJl119venbJVNsVTy8Kbz0Gzl6HAaAu13EALw_wcB</t>
   </si>
   <si>
     <t xml:space="preserve">Accessibilité</t>
@@ -135,7 +150,7 @@
     <t xml:space="preserve">Le contraste entre la couleur de texte et la couleur de fond est trop faible</t>
   </si>
   <si>
-    <t xml:space="preserve">Un contraste entre le fond et le texte trop faible peut poser des difficultés de lecture.</t>
+    <t xml:space="preserve">Un contraste pas suffisamment prononcé entre un texte et un fond ne permet pas une bonne lecteur.</t>
   </si>
   <si>
     <t xml:space="preserve">Adapter un contraste suffisant entre le fond et le texte.</t>
@@ -147,60 +162,51 @@
     <t xml:space="preserve">La taille de texte est trop faible sur les paragraphes</t>
   </si>
   <si>
-    <t xml:space="preserve">Une taille de texte trop petite peut être problématique pour la lecture.</t>
+    <t xml:space="preserve">Une taille de police trop petite peux poser des problèmes pour la lecture.</t>
   </si>
   <si>
     <t xml:space="preserve">Laisser le style par défaut du navigateur ou augmenter la taille de la police.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.w3.org/Translations/WCAG20-fr/#glossary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le texte dans les images doit être proscrit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le texte contenu dans les images ne peut pas être lu ni par les liseuses, ni par les moteurs de recherche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne mettre aucun texte sous format image</t>
+    <t xml:space="preserve">https://opentextbc.ca/troussedoutildaccessibilite/chapter/taille-de-police/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La structure des titres est incorrecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les balises h1 h2 et h3 ne sont pas correctement utilisées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S’assurer que l’ordre des balises titres soit bien respecté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#les_%C3%A9quivalents_textuels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problème de langue non définie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans la propriété lang de la balise &lt;html&gt; la valeur affichée est « défault » ce qui est une érreur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramétrer la langue dans lequel le texte est saisi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3schools.com/tags/ref_language_codes.asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contenu de la propriété alt des images est incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contenu de la propriété alt est destiné à décrire le contenu de l’image et non pas un ensemble de mots clés pour le référencement. Ce contenu est chargé pour les liseuses ou lorsque l’image n’a pas pu être chargée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Décrire le contenu de l’image dans la balise alt.</t>
   </si>
   <si>
     <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#text_equivalents</t>
   </si>
   <si>
-    <t xml:space="preserve">La structure des titres est incorrecte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les titres ne sont pas dans le bon ordre sur la partie contenant les cartes « Web design », « Stratégies » et « Illustrations »</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S’assurer que l’ordre des balises titres soit bien respecté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#general_guidelines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La langue ne correspond pas au contenu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La langue dans la propriété lang de la balise &lt;html&gt; est incorrecte. Une liseuse vocale interprétera mal le texte contenu dans la page web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paramétrer la langue dans lequel le texte est saisi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/HTTP/Headers/Content-Language#indiquer_la_langue_dans_laquelle_un_document_est_%C3%A9crit liste des langues :  https://www.w3schools.com/tags/ref_language_codes.asp </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le contenu de la propriété alt des images est incorrect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le contenu de la propriété alt est destiné à décrire le contenu de l’image et non pas un ensemble de mots clés pour le référencement. Ce contenu est chargé pour les liseuses ou lorsque l’image n’a pas pu être chargée.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décrire le contenu de l’image dans la balise alt.</t>
-  </si>
-  <si>
     <t xml:space="preserve">La balise aria-label sur les liens sous format image sans texte est manquante.</t>
   </si>
   <si>
@@ -213,18 +219,6 @@
     <t xml:space="preserve">https://www.w3.org/TR/wai-aria-1.1/#aria-label</t>
   </si>
   <si>
-    <t xml:space="preserve">Messages d’erreur en anglais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le visiteur peut ne pas comprendre une autre langue que sa langue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saisir les messages d’erreur pour qu’il soit lisible dans la langue de l’utilisateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.w3.org/Translations/WCAG20-fr/#meaning</t>
-  </si>
-  <si>
     <t xml:space="preserve">Liens hypertexte sans destination</t>
   </si>
   <si>
@@ -235,15 +229,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.w3.org/Translations/WCAG20-fr/#navigation-mechanisms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les champs de saisie n’ont pas de label correspondant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les champs de saisie de texte dans le formulaire de contact doivent avoir un champ label le décrivant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour chaque champ de saisie, créer un label</t>
   </si>
   <si>
     <t xml:space="preserve">Les feuilles de style et les fichiers Javascript ne sont pas appelés correctement dans page2.html</t>
@@ -265,7 +250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -318,6 +303,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -390,7 +381,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,31 +399,31 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -440,27 +431,43 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -541,12 +548,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:AY981"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B9" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topRight" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -556,7 +563,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="140.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="11.5"/>
   </cols>
@@ -639,7 +646,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -657,7 +664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -675,7 +682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -693,7 +700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -708,242 +715,630 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="11" customFormat="true" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" s="11" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
     </row>
-    <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="4" t="s">
+    <row r="14" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
     </row>
-    <row r="15" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="15" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
     </row>
-    <row r="16" s="16" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="14" t="s">
+    <row r="16" s="21" customFormat="true" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="17" t="s">
         <v>66</v>
       </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
+      <c r="AU16" s="20"/>
+      <c r="AV16" s="20"/>
+      <c r="AW16" s="20"/>
+      <c r="AX16" s="20"/>
+      <c r="AY16" s="20"/>
     </row>
-    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="5" t="s">
-        <v>70</v>
-      </c>
+    <row r="17" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
     </row>
-    <row r="18" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5" t="s">
-        <v>70</v>
-      </c>
+    <row r="18" customFormat="false" ht="137.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
     </row>
-    <row r="19" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14" t="s">
-        <v>77</v>
-      </c>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1907,25 +2302,17 @@
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="https://www.seonity.com/format-image-webp-seo/"/>
-    <hyperlink ref="F4" r:id="rId2" display="https://www.ovh.com/fr/cdn/amelioration-referencement.xml"/>
-    <hyperlink ref="F6" r:id="rId3" location="/id/r-5603088" display="https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578346-augmentez-lautorite-de-votre-site#/id/r-5603088"/>
-    <hyperlink ref="F7" r:id="rId4" display="https://www.matthieu-tranvan.fr/referencement-naturel/checklist-seo-25-bonnes-pratiques-on-site-pour-renforcer-votre-referencement-naturel.html étape 14"/>
+    <hyperlink ref="F3" r:id="rId1" display="https://www.anthedesign.fr/referencement/seo-comment-optimiser-le-referencement-des-images/"/>
+    <hyperlink ref="F4" r:id="rId2" display="https://www.anthedesign.fr/hebergement-web/cdn-content-delivery-network/"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://www.semjuice.com/definition/black-hat-seo?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNUpNsgnhmSge7NT9pYj_1_KvCgJbyYzyFweHBTXoXtkml8eQS6xIl4aAt7GEALw_wcB"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://www.octopulse.io/blog/balise-title-comment-les-optimiser/?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNWN6Bu620NNkaoLhjpWnVimArjvJl119venbJVNsVTy8Kbz0Gzl6HAaAu13EALw_wcB"/>
     <hyperlink ref="F9" r:id="rId5" location="colour" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#colour"/>
-    <hyperlink ref="F19" r:id="rId6" location="/id/r-1609949" display="https://openclassrooms.com/fr/courses/1603881-apprenez-a-creer-votre-site-web-avec-html5-et-css3/1605060-mettez-en-place-le-css#/id/r-1609949"/>
+    <hyperlink ref="F10" r:id="rId6" display="https://opentextbc.ca/troussedoutildaccessibilite/chapter/taille-de-police/"/>
+    <hyperlink ref="F11" r:id="rId7" location="les_équivalents_textuels" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#les_%C3%A9quivalents_textuels"/>
+    <hyperlink ref="F12" r:id="rId8" display="https://www.w3schools.com/tags/ref_language_codes.asp"/>
+    <hyperlink ref="F16" r:id="rId9" location="/id/r-1609949" display="https://openclassrooms.com/fr/courses/1603881-apprenez-a-creer-votre-site-web-avec-html5-et-css3/1605060-mettez-en-place-le-css#/id/r-1609949"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/P4_01_rapport_analyse.xlsx
+++ b/P4_01_rapport_analyse.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -46,10 +46,10 @@
     <t xml:space="preserve">Erreur sur le titre du site ainsi que sa description</t>
   </si>
   <si>
-    <t xml:space="preserve">Le titre dans la balise &lt;title&gt; contient « . ».                                                           Cet élément est affiché comme le titre du site dans les résultats de recherche.          La balise &lt;meta name= « description »&gt; affiche le texte décrivant le site dans les résultats des moteurs de recherche.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saisir le nom du site avec peu de caractère dans la balise &lt;title&gt;. Résumer le contenu du site dans la balise &lt;meta&gt;.                                     Le titre doit correspondre entre 60 et 70 caractères et doit s’afficher sur moins de 600px.                                      Pour la description limite de 230 caractères ou moins.</t>
+    <t xml:space="preserve">Le titre dans la balise &lt;title&gt; contient « . ».        Cet élément est affiché comme le titre du site dans les résultats de recherche.                          La balise &lt;meta name= « description »&gt; affiche le texte décrivant le site dans les résultats des moteurs de recherche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saisir le nom du site avec peu de caractère dans la balise &lt;title&gt;. Résumer le contenu du site dans la balise &lt;meta&gt;.                                             Le titre doit correspondre entre 60 et 70 caractères et doit s’afficher sur moins de 600px.                                              Pour la description limite de 230 caractères ou moins.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.octopulse.io/blog/balise-title-comment-les-optimiser/?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNXmH_UMURhqs-3ZXXavr471OR6M4OZcKV3LeGhAB8OnbLnJ9T88MU0aAgGYEALw_wcBhttps://www.wearethewords.com/conseils-seo-meta-description/</t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Problème aux niveaux de la taille des images</t>
   </si>
   <si>
-    <t xml:space="preserve">images non optimisées a cause du format.                                                              Poids important des images qui cause un ralentissement du chargement de la page.</t>
+    <t xml:space="preserve">images non optimisées a cause du format.        Poids important des images qui cause un ralentissement du chargement de la page.</t>
   </si>
   <si>
     <t xml:space="preserve">Utilisez de préférence les formats JPG, GIF et PNG.                                    Idéalement, la taille native de l’image doit être la même que la taille d’affichage, cela permet de réduire le poids de nos images.                                </t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">L’hébergement des bibliothèques tierces ralentit le site</t>
   </si>
   <si>
-    <t xml:space="preserve">la bibliothèque Jquery alourdit le chargement de la page.                         Les bibliothèques JavaScript sont déconseillées car les versions ne sont pas mis à jour et peuvent provoquer des problèmes de sécurité.</t>
+    <t xml:space="preserve">la bibliothèque Jquery alourdit le chargement de la page.                                                        Les bibliothèques JavaScript sont déconseillées car les versions ne sont pas mis à jour et peuvent provoquer des problèmes de sécurité.</t>
   </si>
   <si>
     <t xml:space="preserve">Utiliser les CDN proposés par les éditeurs
@@ -90,7 +90,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cours openclasroom</t>
+    <t xml:space="preserve">Cours openclassroom</t>
   </si>
   <si>
     <t xml:space="preserve">Les annuaires en bas de page sont inutiles</t>
@@ -102,19 +102,150 @@
     <t xml:space="preserve">Ne pas mettre d’annuaires qui n’ont aucun lien avec le site , garder le nécessaire</t>
   </si>
   <si>
+    <t xml:space="preserve">plusieurs fois est mentionnées le mot « paris » alors que l’agence est à lyon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans les attributs alt et les mots clés le mot « paris » est mis en avant alors que s’est « lyon » qui devrait être mentionné là ou l’agence est située.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour monter dans les recherches Google il est préférable de mentionné la ville auquel est poster l’agence afin d’avoir un meilleur référencement local.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.actusite.fr/actualite/19642/qu-est-ce-que-le-referencement-local?gclid=CjwKCAiAs92MBhAXEiwAXTi257ktJuW2RRMFKbp6qM-N1oUTl8g4mPktKzpPcVtyuX17gayVakP2TBoC_LAQAvD_BwE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Les mots-clés en 1px autour du logo et en bas de page, de la même couleur que le fond, sont déconseillés pour le référencement</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">les mots-clés saisi en taille très petite ou  cachés par des couleurs ou un fond </t>
-    </r>
+    <t xml:space="preserve">les mots-clés saisi en taille très petite ou  cachés par des couleurs ou un fond qui a pour but d’influencer le classement dans Google est une technique qui peux être punis par Google.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N’utilisez pas de texte trop petit ou de texte caché.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semjuice.com/definition/black-hat-seo?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNUpNsgnhmSge7NT9pYj_1_KvCgJbyYzyFweHBTXoXtkml8eQS6xIl4aAt7GEALw_wcB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le nom de la page de contact est incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le titre de la deuxième page « page 2 » n’aide pas le visiteur à ce repérer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas nommer le nom des pages, ainsi que les liens, avec des mots génériques tel que « page X »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.octopulse.io/blog/balise-title-comment-les-optimiser/?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNWN6Bu620NNkaoLhjpWnVimArjvJl119venbJVNsVTy8Kbz0Gzl6HAaAu13EALw_wcB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contraste entre la couleur de texte et la couleur de fond est trop faible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un contraste pas suffisamment prononcé entre un texte et un fond ne permet pas une bonne lecteur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapter un contraste suffisant entre le fond et le texte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La taille de texte est trop faible sur les paragraphes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une taille de police trop petite peux poser des problèmes pour la lecture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laisser le style par défaut du navigateur ou augmenter la taille de la police.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://opentextbc.ca/troussedoutildaccessibilite/chapter/taille-de-police/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La structure des titres est incorrecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les balises h1 h2 et h3 ne sont pas correctement utilisées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S’assurer que l’ordre des balises titres soit bien respecté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#les_%C3%A9quivalents_textuels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problème de langue non définie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans la propriété lang de la balise &lt;html&gt; la valeur affichée est « défault » ce qui est une érreur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramétrer la langue dans lequel le texte est saisi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3schools.com/tags/ref_language_codes.asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contenu de la propriété alt des images est incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contenu de la propriété alt est destiné à décrire le contenu de l’image et non pas un ensemble de mots clés pour le référencement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Décrire le contenu de l’image dans la balise alt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://audreytips.com/glossaire-web/alt-text/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La balise aria-label pour les logos réseaux sociaux est manquantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les logos des réseaux sociaux ne contiennent pas de texte décrivant le lien vers lesquels ils pointent ; ce qui ne pourra pas être interprété par les liseuses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Décrire le lien dans la balise aria-label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/ARIA/ARIA_Techniques/Using_the_aria-label_attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liens hypertexte sans destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les liens des réseaux sociaux ne renvoient vers aucune destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saisir l’URL de destination dans l’attribut du lien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lumni.fr/article/qu-est-ce-qu-un-lien-hypertexte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les feuilles de style et les fichiers Javascript ne sont pas appelés correctement dans page2.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les feuilles de style appelées dans page2.html sont les versions minifiées de Bootstrap, font-awesome et et-line ; seules les versions décompressées sont présentes dans le projet. Les fichiers JavaScript de JQuery, Bootstrap et blocs pointent également vers leurs versions minifiées, alors que seules les versions décompressées sont disponibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrôler les différents liens vers les fichiers externes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openclassrooms.com/fr/courses/1603881-apprenez-a-creer-votre-site-web-avec-html5-et-css3/1605060-mettez-en-place-le-css#/id/r-1609949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">une image ne peux pas être un texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte contenu dans les images ne peut pas être lu ni par les liseuses, ni par les moteurs de recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne mettre aucun texte sous format image</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -122,125 +253,9 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">qui a pour but d’influencer le classement dans Google est une technique qui peux être punis par Google.</t>
+      <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#les_%C3%A9quivalents_textuels
+</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> N’utilisez pas de texte trop petit ou de texte caché.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semjuice.com/definition/black-hat-seo?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNUpNsgnhmSge7NT9pYj_1_KvCgJbyYzyFweHBTXoXtkml8eQS6xIl4aAt7GEALw_wcB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le nom de la page de contact est incorrect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le titre de la deuxième page « page 2 » n’aide pas le visiteur à ce repérer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne pas nommer le nom des pages, ainsi que les liens, avec des mots génériques tel que « page X »</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.octopulse.io/blog/balise-title-comment-les-optimiser/?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNWN6Bu620NNkaoLhjpWnVimArjvJl119venbJVNsVTy8Kbz0Gzl6HAaAu13EALw_wcB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessibilité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le contraste entre la couleur de texte et la couleur de fond est trop faible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un contraste pas suffisamment prononcé entre un texte et un fond ne permet pas une bonne lecteur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adapter un contraste suffisant entre le fond et le texte.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#colour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La taille de texte est trop faible sur les paragraphes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une taille de police trop petite peux poser des problèmes pour la lecture.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laisser le style par défaut du navigateur ou augmenter la taille de la police.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://opentextbc.ca/troussedoutildaccessibilite/chapter/taille-de-police/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La structure des titres est incorrecte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les balises h1 h2 et h3 ne sont pas correctement utilisées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S’assurer que l’ordre des balises titres soit bien respecté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#les_%C3%A9quivalents_textuels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problème de langue non définie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dans la propriété lang de la balise &lt;html&gt; la valeur affichée est « défault » ce qui est une érreur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paramétrer la langue dans lequel le texte est saisi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.w3schools.com/tags/ref_language_codes.asp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le contenu de la propriété alt des images est incorrect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le contenu de la propriété alt est destiné à décrire le contenu de l’image et non pas un ensemble de mots clés pour le référencement. Ce contenu est chargé pour les liseuses ou lorsque l’image n’a pas pu être chargée.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décrire le contenu de l’image dans la balise alt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#text_equivalents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La balise aria-label sur les liens sous format image sans texte est manquante.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les logos des réseaux sociaux ne contiennent pas de texte décrivant le lien vers lesquels ils pointent ; ce qui ne pourra pas être interprété par les liseuses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décrire le lien dans la balise aria-label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.w3.org/TR/wai-aria-1.1/#aria-label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liens hypertexte sans destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les liens des réseaux sociaux ne renvoient vers aucune destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saisir l’URL de destination dans l’attribut du lien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.w3.org/Translations/WCAG20-fr/#navigation-mechanisms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les feuilles de style et les fichiers Javascript ne sont pas appelés correctement dans page2.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les feuilles de style appelées dans page2.html sont les versions minifiées de Bootstrap, font-awesome et et-line ; seules les versions décompressées sont présentes dans le projet. Les fichiers JavaScript de JQuery, Bootstrap et blocs pointent également vers leurs versions minifiées, alors que seules les versions décompressées sont disponibles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôler les différents liens vers les fichiers externes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://openclassrooms.com/fr/courses/1603881-apprenez-a-creer-votre-site-web-avec-html5-et-css3/1605060-mettez-en-place-le-css#/id/r-1609949</t>
   </si>
 </sst>
 </file>
@@ -250,13 +265,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -275,11 +289,81 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -287,12 +371,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -307,22 +407,59 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val=""/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -337,12 +474,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -352,8 +504,15 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -377,11 +536,62 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,39 +600,39 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -430,7 +640,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -438,62 +648,83 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="24">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Heading" xfId="21"/>
+    <cellStyle name="Heading 1" xfId="22"/>
+    <cellStyle name="Heading 2" xfId="23"/>
+    <cellStyle name="Text" xfId="24"/>
+    <cellStyle name="Note" xfId="25"/>
+    <cellStyle name="Footnote" xfId="26"/>
+    <cellStyle name="Hyperlink" xfId="27"/>
+    <cellStyle name="Status" xfId="28"/>
+    <cellStyle name="Good" xfId="29"/>
+    <cellStyle name="Neutral" xfId="30"/>
+    <cellStyle name="Bad" xfId="31"/>
+    <cellStyle name="Warning" xfId="32"/>
+    <cellStyle name="Error" xfId="33"/>
+    <cellStyle name="Accent" xfId="34"/>
+    <cellStyle name="Accent 1" xfId="35"/>
+    <cellStyle name="Accent 2" xfId="36"/>
+    <cellStyle name="Accent 3" xfId="37"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -505,7 +736,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -521,7 +752,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -548,22 +779,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AY981"/>
+  <dimension ref="A1:AY982"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B9" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="topRight" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B10" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topRight" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="140.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="140.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="11.5"/>
   </cols>
@@ -646,7 +877,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -719,24 +950,24 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -754,27 +985,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="true" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
+    </row>
+    <row r="10" s="11" customFormat="true" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>39</v>
@@ -786,58 +1017,13 @@
         <v>41</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="14"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="14"/>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>43</v>
@@ -849,7 +1035,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="12" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="13"/>
@@ -898,9 +1084,9 @@
       <c r="AX11" s="14"/>
       <c r="AY11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>47</v>
@@ -961,9 +1147,9 @@
       <c r="AX12" s="14"/>
       <c r="AY12" s="14"/>
     </row>
-    <row r="13" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>51</v>
@@ -974,7 +1160,7 @@
       <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="4" t="s">
         <v>54</v>
       </c>
@@ -1024,9 +1210,9 @@
       <c r="AX13" s="14"/>
       <c r="AY13" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>55</v>
@@ -1087,21 +1273,21 @@
       <c r="AX14" s="14"/>
       <c r="AY14" s="14"/>
     </row>
-    <row r="15" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="15" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="13"/>
@@ -1150,117 +1336,149 @@
       <c r="AX15" s="14"/>
       <c r="AY15" s="14"/>
     </row>
-    <row r="16" s="21" customFormat="true" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="17" t="s">
+    <row r="16" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="17" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="19"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="20"/>
-      <c r="AT16" s="20"/>
-      <c r="AU16" s="20"/>
-      <c r="AV16" s="20"/>
-      <c r="AW16" s="20"/>
-      <c r="AX16" s="20"/>
-      <c r="AY16" s="20"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
+    <row r="17" s="18" customFormat="true" ht="141.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="17"/>
+      <c r="AT17" s="17"/>
+      <c r="AU17" s="17"/>
+      <c r="AV17" s="17"/>
+      <c r="AW17" s="17"/>
+      <c r="AX17" s="17"/>
+      <c r="AY17" s="17"/>
     </row>
-    <row r="18" customFormat="false" ht="137.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="90.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21" t="s">
+        <v>74</v>
+      </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -1308,6 +1526,12 @@
       <c r="AY18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -1339,8 +1563,54 @@
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+    </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2302,17 +2572,23 @@
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="https://www.anthedesign.fr/referencement/seo-comment-optimiser-le-referencement-des-images/"/>
     <hyperlink ref="F4" r:id="rId2" display="https://www.anthedesign.fr/hebergement-web/cdn-content-delivery-network/"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://www.semjuice.com/definition/black-hat-seo?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNUpNsgnhmSge7NT9pYj_1_KvCgJbyYzyFweHBTXoXtkml8eQS6xIl4aAt7GEALw_wcB"/>
-    <hyperlink ref="F8" r:id="rId4" display="https://www.octopulse.io/blog/balise-title-comment-les-optimiser/?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNWN6Bu620NNkaoLhjpWnVimArjvJl119venbJVNsVTy8Kbz0Gzl6HAaAu13EALw_wcB"/>
-    <hyperlink ref="F9" r:id="rId5" location="colour" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#colour"/>
-    <hyperlink ref="F10" r:id="rId6" display="https://opentextbc.ca/troussedoutildaccessibilite/chapter/taille-de-police/"/>
-    <hyperlink ref="F11" r:id="rId7" location="les_équivalents_textuels" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#les_%C3%A9quivalents_textuels"/>
-    <hyperlink ref="F12" r:id="rId8" display="https://www.w3schools.com/tags/ref_language_codes.asp"/>
-    <hyperlink ref="F16" r:id="rId9" location="/id/r-1609949" display="https://openclassrooms.com/fr/courses/1603881-apprenez-a-creer-votre-site-web-avec-html5-et-css3/1605060-mettez-en-place-le-css#/id/r-1609949"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://www.actusite.fr/actualite/19642/qu-est-ce-que-le-referencement-local?gclid=CjwKCAiAs92MBhAXEiwAXTi257ktJuW2RRMFKbp6qM-N1oUTl8g4mPktKzpPcVtyuX17gayVakP2TBoC_LAQAvD_BwE"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://www.semjuice.com/definition/black-hat-seo?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNUpNsgnhmSge7NT9pYj_1_KvCgJbyYzyFweHBTXoXtkml8eQS6xIl4aAt7GEALw_wcB"/>
+    <hyperlink ref="F9" r:id="rId5" display="https://www.octopulse.io/blog/balise-title-comment-les-optimiser/?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNWN6Bu620NNkaoLhjpWnVimArjvJl119venbJVNsVTy8Kbz0Gzl6HAaAu13EALw_wcB"/>
+    <hyperlink ref="F10" r:id="rId6" location="colour" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#colour"/>
+    <hyperlink ref="F11" r:id="rId7" display="https://opentextbc.ca/troussedoutildaccessibilite/chapter/taille-de-police/"/>
+    <hyperlink ref="F12" r:id="rId8" location="les_équivalents_textuels" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#les_%C3%A9quivalents_textuels"/>
+    <hyperlink ref="F13" r:id="rId9" display="https://www.w3schools.com/tags/ref_language_codes.asp"/>
+    <hyperlink ref="F14" r:id="rId10" display="https://audreytips.com/glossaire-web/alt-text/"/>
+    <hyperlink ref="F15" r:id="rId11" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/ARIA/ARIA_Techniques/Using_the_aria-label_attribute"/>
+    <hyperlink ref="F16" r:id="rId12" display="https://www.lumni.fr/article/qu-est-ce-qu-un-lien-hypertexte"/>
+    <hyperlink ref="F17" r:id="rId13" location="/id/r-1609949" display="https://openclassrooms.com/fr/courses/1603881-apprenez-a-creer-votre-site-web-avec-html5-et-css3/1605060-mettez-en-place-le-css#/id/r-1609949"/>
+    <hyperlink ref="F18" r:id="rId14" location="les_équivalents_textuels" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#les_%C3%A9quivalents_textuels"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/P4_01_rapport_analyse.xlsx
+++ b/P4_01_rapport_analyse.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -70,11 +70,14 @@
     <t xml:space="preserve">L’hébergement des bibliothèques tierces ralentit le site</t>
   </si>
   <si>
-    <t xml:space="preserve">la bibliothèque Jquery alourdit le chargement de la page.                                                        Les bibliothèques JavaScript sont déconseillées car les versions ne sont pas mis à jour et peuvent provoquer des problèmes de sécurité.</t>
+    <t xml:space="preserve">la bibliothèque Jquery alourdit le chargement de la page.                                     Les bibliothèques JavaScript sont déconseillées car les versions ne sont pas mis à jour et peuvent provoquer des problèmes de sécurité.</t>
   </si>
   <si>
     <t xml:space="preserve">Utiliser les CDN proposés par les éditeurs
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.anthedesign.fr/hebergement-web/cdn-content-delivery-network/</t>
@@ -568,7 +571,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -589,10 +592,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -602,11 +613,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -650,7 +661,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -753,10 +764,10 @@
   </sheetPr>
   <dimension ref="A1:AY982"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B16" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="topRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,7 +835,7 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
@@ -856,14 +867,14 @@
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -874,15 +885,17 @@
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -890,53 +903,53 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>29</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -944,17 +957,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -962,626 +975,640 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="true" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="13" customFormat="true" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AV11" s="14"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
+      <c r="E11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="16"/>
+      <c r="AY11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="14"/>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="14"/>
-      <c r="AV12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="14"/>
-      <c r="AU13" s="14"/>
-      <c r="AV13" s="14"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="14"/>
-      <c r="AY13" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="F14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="F15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="16"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="16"/>
+      <c r="AY15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="14"/>
-      <c r="AV16" s="14"/>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="14"/>
-      <c r="AY16" s="14"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="16"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="16"/>
+      <c r="AY16" s="16"/>
     </row>
-    <row r="17" s="18" customFormat="true" ht="141.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="5" t="s">
+    <row r="17" s="20" customFormat="true" ht="141.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="16"/>
-      <c r="AP17" s="16"/>
-      <c r="AQ17" s="16"/>
-      <c r="AR17" s="16"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="17"/>
+      <c r="E17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="18"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="90.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="A18" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19" t="s">
+      <c r="D18" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="14"/>
-      <c r="AT18" s="14"/>
-      <c r="AU18" s="14"/>
-      <c r="AV18" s="14"/>
-      <c r="AW18" s="14"/>
-      <c r="AX18" s="14"/>
-      <c r="AY18" s="14"/>
+      <c r="E18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="14"/>
-      <c r="AT19" s="14"/>
-      <c r="AU19" s="14"/>
-      <c r="AV19" s="14"/>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="14"/>
-      <c r="AY19" s="14"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="16"/>
+      <c r="AT19" s="16"/>
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="16"/>
+      <c r="AW19" s="16"/>
+      <c r="AX19" s="16"/>
+      <c r="AY19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/P4_01_rapport_analyse.xlsx
+++ b/P4_01_rapport_analyse.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Le titre dans la balise &lt;title&gt; contient « . ».     Cet élément est affiché comme le titre du site dans les résultats de recherche.              La balise &lt;meta name= « description »&gt; affiche le texte décrivant le site dans les résultats des moteurs de recherche.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saisir le nom du site avec peu de caractère dans la balise &lt;title&gt;. Résumer le contenu du site dans la balise &lt;meta&gt;.                                             Le titre doit correspondre entre 60 et 70 caractères et doit s’afficher sur moins de 600px.                                              Pour la description limite de 230 caractères ou moins.</t>
+    <t xml:space="preserve">Saisir le nom du site avec peu de caractère dans la balise &lt;title&gt;. Résumer le contenu du site dans la balise &lt;meta&gt;.                                          Le titre doit correspondre entre 60 et 70 caractères et doit s’afficher sur moins de 600px.                                       Pour la description limite de 230 caractères ou moins.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.octopulse.io/blog/balise-title-comment-les-optimiser/?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNXmH_UMURhqs-3ZXXavr471OR6M4OZcKV3LeGhAB8OnbLnJ9T88MU0aAgGYEALw_wcBhttps://www.wearethewords.com/conseils-seo-meta-description/</t>
@@ -758,19 +758,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AY982"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B13" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.66"/>
@@ -779,7 +779,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="140.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2590,8 +2589,8 @@
     <hyperlink ref="F18" r:id="rId14" location="les_équivalents_textuels" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#les_%C3%A9quivalents_textuels&#10;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/P4_01_rapport_analyse.xlsx
+++ b/P4_01_rapport_analyse.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Saisir le nom du site avec peu de caractère dans la balise &lt;title&gt;. Résumer le contenu du site dans la balise &lt;meta&gt;.                                          Le titre doit correspondre entre 60 et 70 caractères et doit s’afficher sur moins de 600px.                                       Pour la description limite de 230 caractères ou moins.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.octopulse.io/blog/balise-title-comment-les-optimiser/?gclid=Cj0KCQiAkNiMBhCxARIsAIDDKNXmH_UMURhqs-3ZXXavr471OR6M4OZcKV3LeGhAB8OnbLnJ9T88MU0aAgGYEALw_wcBhttps://www.wearethewords.com/conseils-seo-meta-description/</t>
@@ -75,9 +78,6 @@
   <si>
     <t xml:space="preserve">Utiliser les CDN proposés par les éditeurs
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.anthedesign.fr/hebergement-web/cdn-content-delivery-network/</t>
@@ -764,13 +764,13 @@
   </sheetPr>
   <dimension ref="A1:AY982"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B13" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="topRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.66"/>
@@ -834,9 +834,11 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -864,17 +866,17 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -882,16 +884,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>19</v>
@@ -910,7 +912,9 @@
       <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="9" t="s">
         <v>23</v>
       </c>
@@ -1001,7 +1005,7 @@
         <v>42</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>43</v>
@@ -1021,7 +1025,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>47</v>
@@ -1086,7 +1090,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>51</v>
@@ -1214,7 +1218,7 @@
         <v>58</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>59</v>
@@ -1279,7 +1283,7 @@
         <v>62</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>63</v>
@@ -1407,7 +1411,7 @@
         <v>70</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>71</v>
@@ -1472,7 +1476,7 @@
         <v>74</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>75</v>
